--- a/Database/Finalize logic tree/Dodge_Ram 1500_Engine Misfire--Cylinder Misfire.xlsx
+++ b/Database/Finalize logic tree/Dodge_Ram 1500_Engine Misfire--Cylinder Misfire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEFF4B8-3FDC-4229-B651-F4C964F32198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C98CC0-7925-40F1-9E44-0F014AAF429E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CA30E2F2-18B0-4E5A-AB99-C5D8D8F0F98D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>Node1</t>
   </si>
@@ -513,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DF4128-CFE8-41FB-A996-634DF098E17B}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,92 +620,92 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -713,9 +713,31 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
